--- a/2019冲冲冲/company.xlsx
+++ b/2019冲冲冲/company.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD27D85-B821-481B-B800-0D44379914F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{919F195E-AB42-4E52-A3E7-F46AA1E2BE19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,12 +98,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -415,7 +422,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
@@ -423,7 +430,7 @@
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -434,7 +441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -445,7 +452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -453,7 +460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -461,7 +468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -469,7 +476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -477,7 +484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -485,12 +492,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -498,7 +505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -506,7 +513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -514,7 +521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -522,7 +529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -530,7 +537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -538,7 +545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -547,6 +554,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>